--- a/stock_historical_data/1wk/AXISBANK.NS.xlsx
+++ b/stock_historical_data/1wk/AXISBANK.NS.xlsx
@@ -75117,7 +75117,9 @@
       <c r="Q1333" t="n">
         <v>0</v>
       </c>
-      <c r="R1333" t="inlineStr"/>
+      <c r="R1333" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/AXISBANK.NS.xlsx
+++ b/stock_historical_data/1wk/AXISBANK.NS.xlsx
@@ -71169,7 +71169,9 @@
       <c r="P1334" t="n">
         <v>0</v>
       </c>
-      <c r="Q1334" t="inlineStr"/>
+      <c r="Q1334" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/AXISBANK.NS.xlsx
+++ b/stock_historical_data/1wk/AXISBANK.NS.xlsx
@@ -75229,7 +75229,9 @@
       <c r="Q1335" t="n">
         <v>0</v>
       </c>
-      <c r="R1335" t="inlineStr"/>
+      <c r="R1335" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/AXISBANK.NS.xlsx
+++ b/stock_historical_data/1wk/AXISBANK.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1335"/>
+  <dimension ref="A1:R1337"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75233,6 +75233,114 @@
         <v>0</v>
       </c>
     </row>
+    <row r="1336">
+      <c r="A1336" s="2" t="n">
+        <v>45460</v>
+      </c>
+      <c r="B1336" t="n">
+        <v>1181.050048828125</v>
+      </c>
+      <c r="C1336" t="n">
+        <v>1246</v>
+      </c>
+      <c r="D1336" t="n">
+        <v>1181.050048828125</v>
+      </c>
+      <c r="E1336" t="n">
+        <v>1237.449951171875</v>
+      </c>
+      <c r="F1336" t="n">
+        <v>1237.449951171875</v>
+      </c>
+      <c r="G1336" t="n">
+        <v>62342790</v>
+      </c>
+      <c r="H1336" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1336" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1336" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1336" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1336" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1336" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1336" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1336" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1336" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1336" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1336" t="inlineStr"/>
+    </row>
+    <row r="1337">
+      <c r="A1337" s="2" t="n">
+        <v>45467</v>
+      </c>
+      <c r="B1337" t="n">
+        <v>1231</v>
+      </c>
+      <c r="C1337" t="n">
+        <v>1310</v>
+      </c>
+      <c r="D1337" t="n">
+        <v>1225.050048828125</v>
+      </c>
+      <c r="E1337" t="n">
+        <v>1265.25</v>
+      </c>
+      <c r="F1337" t="n">
+        <v>1265.25</v>
+      </c>
+      <c r="G1337" t="n">
+        <v>67717807</v>
+      </c>
+      <c r="H1337" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1337" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1337" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1337" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1337" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1337" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1337" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1337" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1337" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1337" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1337" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_historical_data/1wk/AXISBANK.NS.xlsx
+++ b/stock_historical_data/1wk/AXISBANK.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1337"/>
+  <dimension ref="A1:R1344"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3491,7 +3491,7 @@
         <v>0</v>
       </c>
       <c r="Q54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R54" t="n">
         <v>0</v>
@@ -3659,7 +3659,7 @@
         <v>0</v>
       </c>
       <c r="Q57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R57" t="n">
         <v>0</v>
@@ -75165,7 +75165,7 @@
         <v>23</v>
       </c>
       <c r="O1334" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1334" t="n">
         <v>0</v>
@@ -75285,7 +75285,9 @@
       <c r="Q1336" t="n">
         <v>0</v>
       </c>
-      <c r="R1336" t="inlineStr"/>
+      <c r="R1336" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1337">
       <c r="A1337" s="2" t="n">
@@ -75339,7 +75341,387 @@
       <c r="Q1337" t="n">
         <v>0</v>
       </c>
-      <c r="R1337" t="inlineStr"/>
+      <c r="R1337" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1338">
+      <c r="A1338" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="B1338" t="n">
+        <v>1273</v>
+      </c>
+      <c r="C1338" t="n">
+        <v>1295.400024414062</v>
+      </c>
+      <c r="D1338" t="n">
+        <v>1238.25</v>
+      </c>
+      <c r="E1338" t="n">
+        <v>1287.050048828125</v>
+      </c>
+      <c r="F1338" t="n">
+        <v>1286.057495117188</v>
+      </c>
+      <c r="G1338" t="n">
+        <v>44324691</v>
+      </c>
+      <c r="H1338" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1338" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1338" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1338" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1338" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1338" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1338" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1338" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1338" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1338" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1338" t="inlineStr"/>
+    </row>
+    <row r="1339">
+      <c r="A1339" s="2" t="n">
+        <v>45481</v>
+      </c>
+      <c r="B1339" t="n">
+        <v>1285</v>
+      </c>
+      <c r="C1339" t="n">
+        <v>1339.650024414062</v>
+      </c>
+      <c r="D1339" t="n">
+        <v>1275.150024414062</v>
+      </c>
+      <c r="E1339" t="n">
+        <v>1317.300048828125</v>
+      </c>
+      <c r="F1339" t="n">
+        <v>1316.2841796875</v>
+      </c>
+      <c r="G1339" t="n">
+        <v>39295613</v>
+      </c>
+      <c r="H1339" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1339" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1339" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1339" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1339" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1339" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1339" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1339" t="n">
+        <v>1</v>
+      </c>
+      <c r="P1339" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1339" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1339" t="inlineStr"/>
+    </row>
+    <row r="1340">
+      <c r="A1340" s="2" t="n">
+        <v>45488</v>
+      </c>
+      <c r="B1340" t="n">
+        <v>1316.699951171875</v>
+      </c>
+      <c r="C1340" t="n">
+        <v>1324.400024414062</v>
+      </c>
+      <c r="D1340" t="n">
+        <v>1288.199951171875</v>
+      </c>
+      <c r="E1340" t="n">
+        <v>1292.349975585938</v>
+      </c>
+      <c r="F1340" t="n">
+        <v>1292.349975585938</v>
+      </c>
+      <c r="G1340" t="n">
+        <v>28253968</v>
+      </c>
+      <c r="H1340" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1340" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1340" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1340" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1340" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1340" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1340" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1340" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1340" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1340" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1340" t="inlineStr"/>
+    </row>
+    <row r="1341">
+      <c r="A1341" s="2" t="n">
+        <v>45495</v>
+      </c>
+      <c r="B1341" t="n">
+        <v>1283.349975585938</v>
+      </c>
+      <c r="C1341" t="n">
+        <v>1292.349975585938</v>
+      </c>
+      <c r="D1341" t="n">
+        <v>1155.25</v>
+      </c>
+      <c r="E1341" t="n">
+        <v>1177.349975585938</v>
+      </c>
+      <c r="F1341" t="n">
+        <v>1177.349975585938</v>
+      </c>
+      <c r="G1341" t="n">
+        <v>77364263</v>
+      </c>
+      <c r="H1341" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1341" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1341" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1341" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1341" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1341" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1341" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1341" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1341" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1341" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1341" t="inlineStr"/>
+    </row>
+    <row r="1342">
+      <c r="A1342" s="2" t="n">
+        <v>45502</v>
+      </c>
+      <c r="B1342" t="n">
+        <v>1182.349975585938</v>
+      </c>
+      <c r="C1342" t="n">
+        <v>1194.599975585938</v>
+      </c>
+      <c r="D1342" t="n">
+        <v>1154</v>
+      </c>
+      <c r="E1342" t="n">
+        <v>1160.849975585938</v>
+      </c>
+      <c r="F1342" t="n">
+        <v>1160.849975585938</v>
+      </c>
+      <c r="G1342" t="n">
+        <v>76807639</v>
+      </c>
+      <c r="H1342" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1342" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1342" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1342" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1342" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1342" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1342" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1342" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1342" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1342" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1342" t="inlineStr"/>
+    </row>
+    <row r="1343">
+      <c r="A1343" s="2" t="n">
+        <v>45509</v>
+      </c>
+      <c r="B1343" t="n">
+        <v>1142</v>
+      </c>
+      <c r="C1343" t="n">
+        <v>1155.699951171875</v>
+      </c>
+      <c r="D1343" t="n">
+        <v>1123.099975585938</v>
+      </c>
+      <c r="E1343" t="n">
+        <v>1142.75</v>
+      </c>
+      <c r="F1343" t="n">
+        <v>1142.75</v>
+      </c>
+      <c r="G1343" t="n">
+        <v>43120310</v>
+      </c>
+      <c r="H1343" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1343" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1343" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1343" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1343" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1343" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1343" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1343" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1343" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1343" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1343" t="inlineStr"/>
+    </row>
+    <row r="1344">
+      <c r="A1344" s="2" t="n">
+        <v>45516</v>
+      </c>
+      <c r="B1344" t="n">
+        <v>1146</v>
+      </c>
+      <c r="C1344" t="n">
+        <v>1179.599975585938</v>
+      </c>
+      <c r="D1344" t="n">
+        <v>1135.849975585938</v>
+      </c>
+      <c r="E1344" t="n">
+        <v>1166.849975585938</v>
+      </c>
+      <c r="F1344" t="n">
+        <v>1166.849975585938</v>
+      </c>
+      <c r="G1344" t="n">
+        <v>26387099</v>
+      </c>
+      <c r="H1344" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1344" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1344" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1344" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1344" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1344" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1344" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1344" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1344" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1344" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1344" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/AXISBANK.NS.xlsx
+++ b/stock_historical_data/1wk/AXISBANK.NS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1344"/>
+  <dimension ref="A1:R1376"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4051,7 +4051,7 @@
         <v>0</v>
       </c>
       <c r="Q64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R64" t="n">
         <v>0</v>
@@ -4443,7 +4443,7 @@
         <v>0</v>
       </c>
       <c r="Q71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R71" t="n">
         <v>0</v>
@@ -4667,7 +4667,7 @@
         <v>0</v>
       </c>
       <c r="Q75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R75" t="n">
         <v>0</v>
@@ -4891,7 +4891,7 @@
         <v>0</v>
       </c>
       <c r="Q79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R79" t="n">
         <v>0</v>
@@ -5451,7 +5451,7 @@
         <v>0</v>
       </c>
       <c r="Q89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R89" t="n">
         <v>0</v>
@@ -75397,7 +75397,9 @@
       <c r="Q1338" t="n">
         <v>0</v>
       </c>
-      <c r="R1338" t="inlineStr"/>
+      <c r="R1338" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1339">
       <c r="A1339" s="2" t="n">
@@ -75451,7 +75453,9 @@
       <c r="Q1339" t="n">
         <v>0</v>
       </c>
-      <c r="R1339" t="inlineStr"/>
+      <c r="R1339" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1340">
       <c r="A1340" s="2" t="n">
@@ -75505,7 +75509,9 @@
       <c r="Q1340" t="n">
         <v>1</v>
       </c>
-      <c r="R1340" t="inlineStr"/>
+      <c r="R1340" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1341">
       <c r="A1341" s="2" t="n">
@@ -75559,7 +75565,9 @@
       <c r="Q1341" t="n">
         <v>0</v>
       </c>
-      <c r="R1341" t="inlineStr"/>
+      <c r="R1341" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1342">
       <c r="A1342" s="2" t="n">
@@ -75613,7 +75621,9 @@
       <c r="Q1342" t="n">
         <v>0</v>
       </c>
-      <c r="R1342" t="inlineStr"/>
+      <c r="R1342" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1343">
       <c r="A1343" s="2" t="n">
@@ -75659,7 +75669,7 @@
         <v>32</v>
       </c>
       <c r="O1343" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1343" t="n">
         <v>0</v>
@@ -75667,7 +75677,9 @@
       <c r="Q1343" t="n">
         <v>0</v>
       </c>
-      <c r="R1343" t="inlineStr"/>
+      <c r="R1343" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1344">
       <c r="A1344" s="2" t="n">
@@ -75721,7 +75733,1673 @@
       <c r="Q1344" t="n">
         <v>0</v>
       </c>
-      <c r="R1344" t="inlineStr"/>
+      <c r="R1344" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1345">
+      <c r="A1345" s="2" t="n">
+        <v>45523</v>
+      </c>
+      <c r="B1345" t="n">
+        <v>1169</v>
+      </c>
+      <c r="C1345" t="n">
+        <v>1181</v>
+      </c>
+      <c r="D1345" t="n">
+        <v>1150.199951171875</v>
+      </c>
+      <c r="E1345" t="n">
+        <v>1165.949951171875</v>
+      </c>
+      <c r="F1345" t="inlineStr"/>
+      <c r="G1345" t="n">
+        <v>33857490</v>
+      </c>
+      <c r="H1345" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1345" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1345" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1345" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1345" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1345" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1345" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1345" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1345" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1345" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1345" t="inlineStr"/>
+    </row>
+    <row r="1346">
+      <c r="A1346" s="2" t="n">
+        <v>45530</v>
+      </c>
+      <c r="B1346" t="n">
+        <v>1171.699951171875</v>
+      </c>
+      <c r="C1346" t="n">
+        <v>1184.849975585938</v>
+      </c>
+      <c r="D1346" t="n">
+        <v>1163.400024414062</v>
+      </c>
+      <c r="E1346" t="n">
+        <v>1175.25</v>
+      </c>
+      <c r="F1346" t="inlineStr"/>
+      <c r="G1346" t="n">
+        <v>35058848</v>
+      </c>
+      <c r="H1346" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1346" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1346" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1346" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1346" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1346" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1346" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1346" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1346" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1346" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1346" t="inlineStr"/>
+    </row>
+    <row r="1347">
+      <c r="A1347" s="2" t="n">
+        <v>45537</v>
+      </c>
+      <c r="B1347" t="n">
+        <v>1176</v>
+      </c>
+      <c r="C1347" t="n">
+        <v>1194</v>
+      </c>
+      <c r="D1347" t="n">
+        <v>1150.800048828125</v>
+      </c>
+      <c r="E1347" t="n">
+        <v>1158.75</v>
+      </c>
+      <c r="F1347" t="inlineStr"/>
+      <c r="G1347" t="n">
+        <v>34989891</v>
+      </c>
+      <c r="H1347" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1347" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1347" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1347" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1347" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1347" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1347" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1347" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1347" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1347" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1347" t="inlineStr"/>
+    </row>
+    <row r="1348">
+      <c r="A1348" s="2" t="n">
+        <v>45544</v>
+      </c>
+      <c r="B1348" t="n">
+        <v>1158</v>
+      </c>
+      <c r="C1348" t="n">
+        <v>1219.550048828125</v>
+      </c>
+      <c r="D1348" t="n">
+        <v>1145</v>
+      </c>
+      <c r="E1348" t="n">
+        <v>1217.449951171875</v>
+      </c>
+      <c r="F1348" t="inlineStr"/>
+      <c r="G1348" t="n">
+        <v>36780560</v>
+      </c>
+      <c r="H1348" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1348" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1348" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1348" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1348" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1348" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1348" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1348" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1348" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1348" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1348" t="inlineStr"/>
+    </row>
+    <row r="1349">
+      <c r="A1349" s="2" t="n">
+        <v>45551</v>
+      </c>
+      <c r="B1349" t="n">
+        <v>1222</v>
+      </c>
+      <c r="C1349" t="n">
+        <v>1261.699951171875</v>
+      </c>
+      <c r="D1349" t="n">
+        <v>1215</v>
+      </c>
+      <c r="E1349" t="n">
+        <v>1245</v>
+      </c>
+      <c r="F1349" t="inlineStr"/>
+      <c r="G1349" t="n">
+        <v>43739238</v>
+      </c>
+      <c r="H1349" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1349" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1349" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1349" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1349" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1349" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1349" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1349" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1349" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1349" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1349" t="inlineStr"/>
+    </row>
+    <row r="1350">
+      <c r="A1350" s="2" t="n">
+        <v>45558</v>
+      </c>
+      <c r="B1350" t="n">
+        <v>1251.5</v>
+      </c>
+      <c r="C1350" t="n">
+        <v>1281.650024414062</v>
+      </c>
+      <c r="D1350" t="n">
+        <v>1231.099975585938</v>
+      </c>
+      <c r="E1350" t="n">
+        <v>1273.150024414062</v>
+      </c>
+      <c r="F1350" t="inlineStr"/>
+      <c r="G1350" t="n">
+        <v>42184189</v>
+      </c>
+      <c r="H1350" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1350" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1350" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1350" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1350" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1350" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1350" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1350" t="n">
+        <v>1</v>
+      </c>
+      <c r="P1350" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1350" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1350" t="inlineStr"/>
+    </row>
+    <row r="1351">
+      <c r="A1351" s="2" t="n">
+        <v>45565</v>
+      </c>
+      <c r="B1351" t="n">
+        <v>1263.5</v>
+      </c>
+      <c r="C1351" t="n">
+        <v>1275</v>
+      </c>
+      <c r="D1351" t="n">
+        <v>1173.099975585938</v>
+      </c>
+      <c r="E1351" t="n">
+        <v>1178.400024414062</v>
+      </c>
+      <c r="F1351" t="inlineStr"/>
+      <c r="G1351" t="n">
+        <v>49996606</v>
+      </c>
+      <c r="H1351" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1351" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1351" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1351" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1351" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1351" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1351" t="n">
+        <v>40</v>
+      </c>
+      <c r="O1351" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1351" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1351" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1351" t="inlineStr"/>
+    </row>
+    <row r="1352">
+      <c r="A1352" s="2" t="n">
+        <v>45572</v>
+      </c>
+      <c r="B1352" t="n">
+        <v>1182.949951171875</v>
+      </c>
+      <c r="C1352" t="n">
+        <v>1191</v>
+      </c>
+      <c r="D1352" t="n">
+        <v>1130.900024414062</v>
+      </c>
+      <c r="E1352" t="n">
+        <v>1172.449951171875</v>
+      </c>
+      <c r="F1352" t="inlineStr"/>
+      <c r="G1352" t="n">
+        <v>49879718</v>
+      </c>
+      <c r="H1352" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1352" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1352" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1352" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1352" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1352" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1352" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1352" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1352" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1352" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1352" t="inlineStr"/>
+    </row>
+    <row r="1353">
+      <c r="A1353" s="2" t="n">
+        <v>45579</v>
+      </c>
+      <c r="B1353" t="n">
+        <v>1171.550048828125</v>
+      </c>
+      <c r="C1353" t="n">
+        <v>1203.849975585938</v>
+      </c>
+      <c r="D1353" t="n">
+        <v>1124</v>
+      </c>
+      <c r="E1353" t="n">
+        <v>1196.849975585938</v>
+      </c>
+      <c r="F1353" t="inlineStr"/>
+      <c r="G1353" t="n">
+        <v>53671563</v>
+      </c>
+      <c r="H1353" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1353" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1353" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1353" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1353" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1353" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1353" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1353" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1353" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1353" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1353" t="inlineStr"/>
+    </row>
+    <row r="1354">
+      <c r="A1354" s="2" t="n">
+        <v>45586</v>
+      </c>
+      <c r="B1354" t="n">
+        <v>1196.849975585938</v>
+      </c>
+      <c r="C1354" t="n">
+        <v>1214.800048828125</v>
+      </c>
+      <c r="D1354" t="n">
+        <v>1154.650024414062</v>
+      </c>
+      <c r="E1354" t="n">
+        <v>1189.349975585938</v>
+      </c>
+      <c r="F1354" t="inlineStr"/>
+      <c r="G1354" t="n">
+        <v>39059534</v>
+      </c>
+      <c r="H1354" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1354" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1354" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1354" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1354" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1354" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1354" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1354" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1354" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1354" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1354" t="inlineStr"/>
+    </row>
+    <row r="1355">
+      <c r="A1355" s="2" t="n">
+        <v>45593</v>
+      </c>
+      <c r="B1355" t="n">
+        <v>1194</v>
+      </c>
+      <c r="C1355" t="n">
+        <v>1194</v>
+      </c>
+      <c r="D1355" t="n">
+        <v>1153.849975585938</v>
+      </c>
+      <c r="E1355" t="n">
+        <v>1169.550048828125</v>
+      </c>
+      <c r="F1355" t="inlineStr"/>
+      <c r="G1355" t="n">
+        <v>37310824</v>
+      </c>
+      <c r="H1355" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1355" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1355" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1355" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1355" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1355" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1355" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1355" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1355" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1355" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1355" t="inlineStr"/>
+    </row>
+    <row r="1356">
+      <c r="A1356" s="2" t="n">
+        <v>45600</v>
+      </c>
+      <c r="B1356" t="n">
+        <v>1172</v>
+      </c>
+      <c r="C1356" t="n">
+        <v>1183.550048828125</v>
+      </c>
+      <c r="D1356" t="n">
+        <v>1133.449951171875</v>
+      </c>
+      <c r="E1356" t="n">
+        <v>1160.949951171875</v>
+      </c>
+      <c r="F1356" t="inlineStr"/>
+      <c r="G1356" t="n">
+        <v>41382265</v>
+      </c>
+      <c r="H1356" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1356" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1356" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1356" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1356" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1356" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1356" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1356" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1356" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1356" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1356" t="inlineStr"/>
+    </row>
+    <row r="1357">
+      <c r="A1357" s="2" t="n">
+        <v>45607</v>
+      </c>
+      <c r="B1357" t="n">
+        <v>1152</v>
+      </c>
+      <c r="C1357" t="n">
+        <v>1187</v>
+      </c>
+      <c r="D1357" t="n">
+        <v>1131.599975585938</v>
+      </c>
+      <c r="E1357" t="n">
+        <v>1140.699951171875</v>
+      </c>
+      <c r="F1357" t="inlineStr"/>
+      <c r="G1357" t="n">
+        <v>30281752</v>
+      </c>
+      <c r="H1357" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1357" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1357" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1357" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1357" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1357" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1357" t="n">
+        <v>46</v>
+      </c>
+      <c r="O1357" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1357" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1357" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1357" t="inlineStr"/>
+    </row>
+    <row r="1358">
+      <c r="A1358" s="2" t="n">
+        <v>45614</v>
+      </c>
+      <c r="B1358" t="n">
+        <v>1131.199951171875</v>
+      </c>
+      <c r="C1358" t="n">
+        <v>1152</v>
+      </c>
+      <c r="D1358" t="n">
+        <v>1115.75</v>
+      </c>
+      <c r="E1358" t="n">
+        <v>1142.400024414062</v>
+      </c>
+      <c r="F1358" t="inlineStr"/>
+      <c r="G1358" t="n">
+        <v>53514690</v>
+      </c>
+      <c r="H1358" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1358" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1358" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1358" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1358" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1358" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1358" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1358" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1358" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1358" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1358" t="inlineStr"/>
+    </row>
+    <row r="1359">
+      <c r="A1359" s="2" t="n">
+        <v>45621</v>
+      </c>
+      <c r="B1359" t="n">
+        <v>1160</v>
+      </c>
+      <c r="C1359" t="n">
+        <v>1164.5</v>
+      </c>
+      <c r="D1359" t="n">
+        <v>1127.699951171875</v>
+      </c>
+      <c r="E1359" t="n">
+        <v>1136.300048828125</v>
+      </c>
+      <c r="F1359" t="inlineStr"/>
+      <c r="G1359" t="n">
+        <v>40640755</v>
+      </c>
+      <c r="H1359" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1359" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1359" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1359" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1359" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1359" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1359" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1359" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1359" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1359" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1359" t="inlineStr"/>
+    </row>
+    <row r="1360">
+      <c r="A1360" s="2" t="n">
+        <v>45628</v>
+      </c>
+      <c r="B1360" t="n">
+        <v>1132.699951171875</v>
+      </c>
+      <c r="C1360" t="n">
+        <v>1193.849975585938</v>
+      </c>
+      <c r="D1360" t="n">
+        <v>1126.599975585938</v>
+      </c>
+      <c r="E1360" t="n">
+        <v>1184.550048828125</v>
+      </c>
+      <c r="F1360" t="inlineStr"/>
+      <c r="G1360" t="n">
+        <v>49730359</v>
+      </c>
+      <c r="H1360" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1360" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1360" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1360" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1360" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1360" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1360" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1360" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1360" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1360" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1360" t="inlineStr"/>
+    </row>
+    <row r="1361">
+      <c r="A1361" s="2" t="n">
+        <v>45635</v>
+      </c>
+      <c r="B1361" t="n">
+        <v>1184.25</v>
+      </c>
+      <c r="C1361" t="n">
+        <v>1186</v>
+      </c>
+      <c r="D1361" t="n">
+        <v>1113.650024414062</v>
+      </c>
+      <c r="E1361" t="n">
+        <v>1148.150024414062</v>
+      </c>
+      <c r="F1361" t="inlineStr"/>
+      <c r="G1361" t="n">
+        <v>32367644</v>
+      </c>
+      <c r="H1361" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1361" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1361" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1361" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1361" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1361" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1361" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1361" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1361" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1361" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1361" t="inlineStr"/>
+    </row>
+    <row r="1362">
+      <c r="A1362" s="2" t="n">
+        <v>45642</v>
+      </c>
+      <c r="B1362" t="n">
+        <v>1146.5</v>
+      </c>
+      <c r="C1362" t="n">
+        <v>1155</v>
+      </c>
+      <c r="D1362" t="n">
+        <v>1065</v>
+      </c>
+      <c r="E1362" t="n">
+        <v>1071.849975585938</v>
+      </c>
+      <c r="F1362" t="inlineStr"/>
+      <c r="G1362" t="n">
+        <v>42790812</v>
+      </c>
+      <c r="H1362" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1362" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1362" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1362" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1362" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1362" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1362" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1362" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1362" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1362" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1362" t="inlineStr"/>
+    </row>
+    <row r="1363">
+      <c r="A1363" s="2" t="n">
+        <v>45649</v>
+      </c>
+      <c r="B1363" t="n">
+        <v>1075.099975585938</v>
+      </c>
+      <c r="C1363" t="n">
+        <v>1092.599975585938</v>
+      </c>
+      <c r="D1363" t="n">
+        <v>1072.400024414062</v>
+      </c>
+      <c r="E1363" t="n">
+        <v>1077.449951171875</v>
+      </c>
+      <c r="F1363" t="inlineStr"/>
+      <c r="G1363" t="n">
+        <v>16807742</v>
+      </c>
+      <c r="H1363" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1363" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1363" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1363" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1363" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1363" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1363" t="n">
+        <v>52</v>
+      </c>
+      <c r="O1363" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1363" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1363" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1363" t="inlineStr"/>
+    </row>
+    <row r="1364">
+      <c r="A1364" s="2" t="n">
+        <v>45656</v>
+      </c>
+      <c r="B1364" t="n">
+        <v>1074.099975585938</v>
+      </c>
+      <c r="C1364" t="n">
+        <v>1096.5</v>
+      </c>
+      <c r="D1364" t="n">
+        <v>1053.949951171875</v>
+      </c>
+      <c r="E1364" t="n">
+        <v>1084.900024414062</v>
+      </c>
+      <c r="F1364" t="inlineStr"/>
+      <c r="G1364" t="n">
+        <v>31643942</v>
+      </c>
+      <c r="H1364" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1364" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1364" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1364" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1364" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1364" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1364" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1364" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1364" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1364" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1364" t="inlineStr"/>
+    </row>
+    <row r="1365">
+      <c r="A1365" s="2" t="n">
+        <v>45663</v>
+      </c>
+      <c r="B1365" t="n">
+        <v>1087.75</v>
+      </c>
+      <c r="C1365" t="n">
+        <v>1090</v>
+      </c>
+      <c r="D1365" t="n">
+        <v>1037</v>
+      </c>
+      <c r="E1365" t="n">
+        <v>1040.699951171875</v>
+      </c>
+      <c r="F1365" t="inlineStr"/>
+      <c r="G1365" t="n">
+        <v>33350049</v>
+      </c>
+      <c r="H1365" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1365" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1365" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1365" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1365" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1365" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1365" t="n">
+        <v>2</v>
+      </c>
+      <c r="O1365" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1365" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1365" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1365" t="inlineStr"/>
+    </row>
+    <row r="1366">
+      <c r="A1366" s="2" t="n">
+        <v>45670</v>
+      </c>
+      <c r="B1366" t="n">
+        <v>1026.599975585938</v>
+      </c>
+      <c r="C1366" t="n">
+        <v>1063</v>
+      </c>
+      <c r="D1366" t="n">
+        <v>974.5999755859375</v>
+      </c>
+      <c r="E1366" t="n">
+        <v>991.0499877929688</v>
+      </c>
+      <c r="F1366" t="inlineStr"/>
+      <c r="G1366" t="n">
+        <v>69585892</v>
+      </c>
+      <c r="H1366" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1366" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1366" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1366" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1366" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1366" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1366" t="n">
+        <v>3</v>
+      </c>
+      <c r="O1366" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1366" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1366" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1366" t="inlineStr"/>
+    </row>
+    <row r="1367">
+      <c r="A1367" s="2" t="n">
+        <v>45677</v>
+      </c>
+      <c r="B1367" t="n">
+        <v>992.0499877929688</v>
+      </c>
+      <c r="C1367" t="n">
+        <v>994.4500122070312</v>
+      </c>
+      <c r="D1367" t="n">
+        <v>946.0999755859375</v>
+      </c>
+      <c r="E1367" t="n">
+        <v>948.5</v>
+      </c>
+      <c r="F1367" t="inlineStr"/>
+      <c r="G1367" t="n">
+        <v>101709596</v>
+      </c>
+      <c r="H1367" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1367" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1367" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1367" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1367" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1367" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1367" t="n">
+        <v>4</v>
+      </c>
+      <c r="O1367" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1367" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1367" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1367" t="inlineStr"/>
+    </row>
+    <row r="1368">
+      <c r="A1368" s="2" t="n">
+        <v>45684</v>
+      </c>
+      <c r="B1368" t="n">
+        <v>943.0999755859375</v>
+      </c>
+      <c r="C1368" t="n">
+        <v>1004.950012207031</v>
+      </c>
+      <c r="D1368" t="n">
+        <v>933.5</v>
+      </c>
+      <c r="E1368" t="n">
+        <v>998.1500244140625</v>
+      </c>
+      <c r="F1368" t="inlineStr"/>
+      <c r="G1368" t="n">
+        <v>70009694</v>
+      </c>
+      <c r="H1368" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1368" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1368" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1368" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1368" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1368" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1368" t="n">
+        <v>5</v>
+      </c>
+      <c r="O1368" t="n">
+        <v>2</v>
+      </c>
+      <c r="P1368" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1368" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1368" t="inlineStr"/>
+    </row>
+    <row r="1369">
+      <c r="A1369" s="2" t="n">
+        <v>45691</v>
+      </c>
+      <c r="B1369" t="n">
+        <v>987.0999755859375</v>
+      </c>
+      <c r="C1369" t="n">
+        <v>1027.349975585938</v>
+      </c>
+      <c r="D1369" t="n">
+        <v>983.3499755859375</v>
+      </c>
+      <c r="E1369" t="n">
+        <v>1024.099975585938</v>
+      </c>
+      <c r="F1369" t="inlineStr"/>
+      <c r="G1369" t="n">
+        <v>45495363</v>
+      </c>
+      <c r="H1369" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1369" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1369" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1369" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1369" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1369" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1369" t="n">
+        <v>6</v>
+      </c>
+      <c r="O1369" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1369" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1369" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1369" t="inlineStr"/>
+    </row>
+    <row r="1370">
+      <c r="A1370" s="2" t="n">
+        <v>45698</v>
+      </c>
+      <c r="B1370" t="n">
+        <v>1021</v>
+      </c>
+      <c r="C1370" t="n">
+        <v>1026.75</v>
+      </c>
+      <c r="D1370" t="n">
+        <v>984</v>
+      </c>
+      <c r="E1370" t="n">
+        <v>997.5</v>
+      </c>
+      <c r="F1370" t="inlineStr"/>
+      <c r="G1370" t="n">
+        <v>28162064</v>
+      </c>
+      <c r="H1370" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1370" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1370" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1370" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1370" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1370" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1370" t="n">
+        <v>7</v>
+      </c>
+      <c r="O1370" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1370" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1370" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1370" t="inlineStr"/>
+    </row>
+    <row r="1371">
+      <c r="A1371" s="2" t="n">
+        <v>45705</v>
+      </c>
+      <c r="B1371" t="n">
+        <v>992.4500122070312</v>
+      </c>
+      <c r="C1371" t="n">
+        <v>1021.900024414062</v>
+      </c>
+      <c r="D1371" t="n">
+        <v>978.0499877929688</v>
+      </c>
+      <c r="E1371" t="n">
+        <v>1008.950012207031</v>
+      </c>
+      <c r="F1371" t="inlineStr"/>
+      <c r="G1371" t="n">
+        <v>26689337</v>
+      </c>
+      <c r="H1371" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1371" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1371" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1371" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1371" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1371" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1371" t="n">
+        <v>8</v>
+      </c>
+      <c r="O1371" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1371" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1371" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1371" t="inlineStr"/>
+    </row>
+    <row r="1372">
+      <c r="A1372" s="2" t="n">
+        <v>45712</v>
+      </c>
+      <c r="B1372" t="n">
+        <v>1001.349975585938</v>
+      </c>
+      <c r="C1372" t="n">
+        <v>1035.5</v>
+      </c>
+      <c r="D1372" t="n">
+        <v>997.0999755859375</v>
+      </c>
+      <c r="E1372" t="n">
+        <v>1015.549987792969</v>
+      </c>
+      <c r="F1372" t="inlineStr"/>
+      <c r="G1372" t="n">
+        <v>34778968</v>
+      </c>
+      <c r="H1372" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1372" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1372" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1372" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1372" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1372" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1372" t="n">
+        <v>9</v>
+      </c>
+      <c r="O1372" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1372" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1372" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1372" t="inlineStr"/>
+    </row>
+    <row r="1373">
+      <c r="A1373" s="2" t="n">
+        <v>45719</v>
+      </c>
+      <c r="B1373" t="n">
+        <v>1017.049987792969</v>
+      </c>
+      <c r="C1373" t="n">
+        <v>1050.349975585938</v>
+      </c>
+      <c r="D1373" t="n">
+        <v>992</v>
+      </c>
+      <c r="E1373" t="n">
+        <v>1037.650024414062</v>
+      </c>
+      <c r="F1373" t="inlineStr"/>
+      <c r="G1373" t="n">
+        <v>33141918</v>
+      </c>
+      <c r="H1373" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1373" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1373" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1373" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1373" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1373" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1373" t="n">
+        <v>10</v>
+      </c>
+      <c r="O1373" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1373" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1373" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1373" t="inlineStr"/>
+    </row>
+    <row r="1374">
+      <c r="A1374" s="2" t="n">
+        <v>45726</v>
+      </c>
+      <c r="B1374" t="n">
+        <v>1036</v>
+      </c>
+      <c r="C1374" t="n">
+        <v>1050.5</v>
+      </c>
+      <c r="D1374" t="n">
+        <v>999.2000122070312</v>
+      </c>
+      <c r="E1374" t="n">
+        <v>1010.200012207031</v>
+      </c>
+      <c r="F1374" t="inlineStr"/>
+      <c r="G1374" t="n">
+        <v>22275582</v>
+      </c>
+      <c r="H1374" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1374" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1374" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1374" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1374" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1374" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1374" t="n">
+        <v>11</v>
+      </c>
+      <c r="O1374" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1374" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1374" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1374" t="inlineStr"/>
+    </row>
+    <row r="1375">
+      <c r="A1375" s="2" t="n">
+        <v>45733</v>
+      </c>
+      <c r="B1375" t="n">
+        <v>1011.099975585938</v>
+      </c>
+      <c r="C1375" t="n">
+        <v>1075.550048828125</v>
+      </c>
+      <c r="D1375" t="n">
+        <v>1011.099975585938</v>
+      </c>
+      <c r="E1375" t="n">
+        <v>1070.150024414062</v>
+      </c>
+      <c r="F1375" t="inlineStr"/>
+      <c r="G1375" t="n">
+        <v>21352242</v>
+      </c>
+      <c r="H1375" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1375" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1375" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1375" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1375" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1375" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1375" t="n">
+        <v>12</v>
+      </c>
+      <c r="O1375" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1375" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1375" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1375" t="inlineStr"/>
+    </row>
+    <row r="1376">
+      <c r="A1376" s="2" t="n">
+        <v>45740</v>
+      </c>
+      <c r="B1376" t="n">
+        <v>1082</v>
+      </c>
+      <c r="C1376" t="n">
+        <v>1123.5</v>
+      </c>
+      <c r="D1376" t="n">
+        <v>1073.699951171875</v>
+      </c>
+      <c r="E1376" t="n">
+        <v>1102</v>
+      </c>
+      <c r="F1376" t="inlineStr"/>
+      <c r="G1376" t="n">
+        <v>40562558</v>
+      </c>
+      <c r="H1376" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1376" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1376" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1376" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1376" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1376" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1376" t="n">
+        <v>13</v>
+      </c>
+      <c r="O1376" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1376" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1376" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1376" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
